--- a/Archivos Excel/users.xlsx
+++ b/Archivos Excel/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000D6597-224F-41ED-BC9F-CE346BBD514B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020BC97-3B3E-4DC5-BC1E-92B907046BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{BE3664C0-810B-4123-85BD-D972DB2A88E7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve"> 'Pedro'</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 'namasan@hotmail.com'</t>
+  </si>
+  <si>
+    <t>insert into user values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -489,15 +498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F35261-B3BF-45AF-87B7-6590A3A9427D}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2321423</v>
       </c>
@@ -519,8 +532,21 @@
       <c r="G1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" t="str">
+        <f>CONCATENATE($Q$1,A1,$S$1,B1,$S$1,C1,$S$1,D1,$S$1,E1,$S$1,F1,R1)</f>
+        <v>insert into user values(2321423, 'Pedro', 'López', 'Perez', 'pedrolop@gmail.com',210);</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5838743</v>
       </c>
@@ -542,8 +568,12 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f>CONCATENATE($Q$1,A3,$S$1,B3,$S$1,C3,$S$1,D3,$S$1,E3,$S$1,F3,K3)</f>
+        <v>insert into user values(5838743, 'Johnathan', 'Joestar', '', 'jojoReference@hotmail.com',2203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4737492</v>
       </c>
@@ -565,8 +595,12 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f>CONCATENATE($Q$1,A5,$S$1,B5,$S$1,C5,$S$1,D5,$S$1,E5,$S$1,F5,K5)</f>
+        <v>insert into user values(4737492, 'Peter', 'McDonald', 'Douglas', 'peterMcd@gmail.com',122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1238471</v>
       </c>
@@ -588,8 +622,12 @@
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f>CONCATENATE($Q$1,A7,$S$1,B7,$S$1,C7,$S$1,D7,$S$1,E7,$S$1,F7,K7)</f>
+        <v>insert into user values(1238471, 'James', 'Miles', 'Johnson', 'jimmymj@yahoomail.com',3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4528483</v>
       </c>
@@ -611,8 +649,12 @@
       <c r="G9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f>CONCATENATE($Q$1,A9,$S$1,B9,$S$1,C9,$S$1,D9,$S$1,E9,$S$1,F9,K9)</f>
+        <v>insert into user values(4528483, 'Putin', 'Makarov', 'Vlasov', 'putinvlas@protonmail.com',323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4917493</v>
       </c>
@@ -634,8 +676,12 @@
       <c r="G11">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f>CONCATENATE($Q$1,A11,$S$1,B11,$S$1,C11,$S$1,D11,$S$1,E11,$S$1,F11,K11)</f>
+        <v>insert into user values(4917493, 'Pierre', 'Chauvet', 'Derroux', 'picharroux@gmail.com',1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3283295</v>
       </c>
@@ -657,8 +703,12 @@
       <c r="G13">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f>CONCATENATE($Q$1,A13,$S$1,B13,$S$1,C13,$S$1,D13,$S$1,E13,$S$1,F13,K13)</f>
+        <v>insert into user values(3283295, 'Igor', 'Bogdanoff', 'Yourievitch', 'thebog@hotmail.com',3023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2374827</v>
       </c>
@@ -680,8 +730,12 @@
       <c r="G15">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f>CONCATENATE($Q$1,A15,$S$1,B15,$S$1,C15,$S$1,D15,$S$1,E15,$S$1,F15,K15)</f>
+        <v>insert into user values(2374827, 'Heins', 'Christoffen', 'Schmidt', 'heincrhis@hotmail.com',2304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9373493</v>
       </c>
@@ -702,6 +756,10 @@
       </c>
       <c r="G17">
         <v>9</v>
+      </c>
+      <c r="J17" t="str">
+        <f>CONCATENATE($Q$1,A17,$S$1,B17,$S$1,C17,$S$1,D17,$S$1,E17,$S$1,F17,K17)</f>
+        <v>insert into user values(9373493, 'Yoko', 'Namakura', 'Furikawa', 'namasan@hotmail.com',934</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos Excel/users.xlsx
+++ b/Archivos Excel/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020BC97-3B3E-4DC5-BC1E-92B907046BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20710D23-4624-4E3E-93F9-61A76A51D84B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{BE3664C0-810B-4123-85BD-D972DB2A88E7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve"> 'Pedro'</t>
   </si>
@@ -147,6 +147,54 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Moira'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Parkel'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vefill'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'parkelVef10@gmail.com'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Bobin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Coronel'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Pesquero'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'nibobcorpes@hotmail.es'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Espinete'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Gonzalez'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Redondo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'redGonzes29@yahoo.es'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Marta'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Guzmán'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Fernandez'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'martaGuzFer300297@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -182,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F35261-B3BF-45AF-87B7-6590A3A9427D}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="str">
-        <f>CONCATENATE($Q$1,A1,$S$1,B1,$S$1,C1,$S$1,D1,$S$1,E1,$S$1,F1,R1)</f>
+        <f>CONCATENATE($Q$1,A1,$S$1,B1,$S$1,C1,$S$1,D1,$S$1,E1,$S$1,F1,$R$1)</f>
         <v>insert into user values(2321423, 'Pedro', 'López', 'Perez', 'pedrolop@gmail.com',210);</v>
       </c>
       <c r="Q1" t="s">
@@ -569,8 +618,8 @@
         <v>2</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE($Q$1,A3,$S$1,B3,$S$1,C3,$S$1,D3,$S$1,E3,$S$1,F3,K3)</f>
-        <v>insert into user values(5838743, 'Johnathan', 'Joestar', '', 'jojoReference@hotmail.com',2203</v>
+        <f t="shared" ref="J3:J25" si="0">CONCATENATE($Q$1,A3,$S$1,B3,$S$1,C3,$S$1,D3,$S$1,E3,$S$1,F3,$R$1)</f>
+        <v>insert into user values(5838743, 'Johnathan', 'Joestar', '', 'jojoReference@hotmail.com',2203);</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -596,8 +645,8 @@
         <v>3</v>
       </c>
       <c r="J5" t="str">
-        <f>CONCATENATE($Q$1,A5,$S$1,B5,$S$1,C5,$S$1,D5,$S$1,E5,$S$1,F5,K5)</f>
-        <v>insert into user values(4737492, 'Peter', 'McDonald', 'Douglas', 'peterMcd@gmail.com',122</v>
+        <f t="shared" ref="J5:J25" si="1">CONCATENATE($Q$1,A5,$S$1,B5,$S$1,C5,$S$1,D5,$S$1,E5,$S$1,F5,$R$1)</f>
+        <v>insert into user values(4737492, 'Peter', 'McDonald', 'Douglas', 'peterMcd@gmail.com',122);</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -623,8 +672,8 @@
         <v>4</v>
       </c>
       <c r="J7" t="str">
-        <f>CONCATENATE($Q$1,A7,$S$1,B7,$S$1,C7,$S$1,D7,$S$1,E7,$S$1,F7,K7)</f>
-        <v>insert into user values(1238471, 'James', 'Miles', 'Johnson', 'jimmymj@yahoomail.com',3</v>
+        <f t="shared" ref="J7:J25" si="2">CONCATENATE($Q$1,A7,$S$1,B7,$S$1,C7,$S$1,D7,$S$1,E7,$S$1,F7,$R$1)</f>
+        <v>insert into user values(1238471, 'James', 'Miles', 'Johnson', 'jimmymj@yahoomail.com',3);</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -650,8 +699,8 @@
         <v>5</v>
       </c>
       <c r="J9" t="str">
-        <f>CONCATENATE($Q$1,A9,$S$1,B9,$S$1,C9,$S$1,D9,$S$1,E9,$S$1,F9,K9)</f>
-        <v>insert into user values(4528483, 'Putin', 'Makarov', 'Vlasov', 'putinvlas@protonmail.com',323</v>
+        <f t="shared" ref="J9:J25" si="3">CONCATENATE($Q$1,A9,$S$1,B9,$S$1,C9,$S$1,D9,$S$1,E9,$S$1,F9,$R$1)</f>
+        <v>insert into user values(4528483, 'Putin', 'Makarov', 'Vlasov', 'putinvlas@protonmail.com',323);</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -677,8 +726,8 @@
         <v>6</v>
       </c>
       <c r="J11" t="str">
-        <f>CONCATENATE($Q$1,A11,$S$1,B11,$S$1,C11,$S$1,D11,$S$1,E11,$S$1,F11,K11)</f>
-        <v>insert into user values(4917493, 'Pierre', 'Chauvet', 'Derroux', 'picharroux@gmail.com',1002</v>
+        <f t="shared" ref="J11:J25" si="4">CONCATENATE($Q$1,A11,$S$1,B11,$S$1,C11,$S$1,D11,$S$1,E11,$S$1,F11,$R$1)</f>
+        <v>insert into user values(4917493, 'Pierre', 'Chauvet', 'Derroux', 'picharroux@gmail.com',1002);</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -704,8 +753,8 @@
         <v>7</v>
       </c>
       <c r="J13" t="str">
-        <f>CONCATENATE($Q$1,A13,$S$1,B13,$S$1,C13,$S$1,D13,$S$1,E13,$S$1,F13,K13)</f>
-        <v>insert into user values(3283295, 'Igor', 'Bogdanoff', 'Yourievitch', 'thebog@hotmail.com',3023</v>
+        <f t="shared" ref="J13:J25" si="5">CONCATENATE($Q$1,A13,$S$1,B13,$S$1,C13,$S$1,D13,$S$1,E13,$S$1,F13,$R$1)</f>
+        <v>insert into user values(3283295, 'Igor', 'Bogdanoff', 'Yourievitch', 'thebog@hotmail.com',3023);</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -731,8 +780,8 @@
         <v>8</v>
       </c>
       <c r="J15" t="str">
-        <f>CONCATENATE($Q$1,A15,$S$1,B15,$S$1,C15,$S$1,D15,$S$1,E15,$S$1,F15,K15)</f>
-        <v>insert into user values(2374827, 'Heins', 'Christoffen', 'Schmidt', 'heincrhis@hotmail.com',2304</v>
+        <f t="shared" ref="J15:J25" si="6">CONCATENATE($Q$1,A15,$S$1,B15,$S$1,C15,$S$1,D15,$S$1,E15,$S$1,F15,$R$1)</f>
+        <v>insert into user values(2374827, 'Heins', 'Christoffen', 'Schmidt', 'heincrhis@hotmail.com',2304);</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -758,8 +807,116 @@
         <v>9</v>
       </c>
       <c r="J17" t="str">
-        <f>CONCATENATE($Q$1,A17,$S$1,B17,$S$1,C17,$S$1,D17,$S$1,E17,$S$1,F17,K17)</f>
-        <v>insert into user values(9373493, 'Yoko', 'Namakura', 'Furikawa', 'namasan@hotmail.com',934</v>
+        <f t="shared" ref="J17:J25" si="7">CONCATENATE($Q$1,A17,$S$1,B17,$S$1,C17,$S$1,D17,$S$1,E17,$S$1,F17,$R$1)</f>
+        <v>insert into user values(9373493, 'Yoko', 'Namakura', 'Furikawa', 'namasan@hotmail.com',934);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9043278</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J25" si="8">CONCATENATE($Q$1,A19,$S$1,B19,$S$1,C19,$S$1,D19,$S$1,E19,$S$1,F19,$R$1)</f>
+        <v>insert into user values(9043278, 'Moira', 'Parkel', 'Vefill', 'parkelVef10@gmail.com',400);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4782107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:J25" si="9">CONCATENATE($Q$1,A21,$S$1,B21,$S$1,C21,$S$1,D21,$S$1,E21,$S$1,F21,$R$1)</f>
+        <v>insert into user values(4782107, 'Bobin', 'Coronel', 'Pesquero', 'nibobcorpes@hotmail.es',20);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4309871</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>3921</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J25" si="10">CONCATENATE($Q$1,A23,$S$1,B23,$S$1,C23,$S$1,D23,$S$1,E23,$S$1,F23,$R$1)</f>
+        <v>insert into user values(4309871, 'Espinete', 'Gonzalez', 'Redondo', 'redGonzes29@yahoo.es',3921);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3421987</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25">
+        <v>98</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25" si="11">CONCATENATE($Q$1,A25,$S$1,B25,$S$1,C25,$S$1,D25,$S$1,E25,$S$1,F25,$R$1)</f>
+        <v>insert into user values(3421987, 'Marta', 'Guzmán', 'Fernandez', 'martaGuzFer300297@gmail.com,98);</v>
       </c>
     </row>
   </sheetData>
